--- a/Assets/Resources/Test/Ability_table.xlsx
+++ b/Assets/Resources/Test/Ability_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cf3299fb81afa04/문서/에버모어 프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\EverMore\Assets\Resources\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="8_{06E97A05-4C94-4170-8EA3-DF2500711A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3BC5B616-358A-42DA-A973-B85F1E37CE09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C17C3-6558-49DC-A547-AC5E286170AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53345D90-7A96-496A-B7FF-D80DB1ADE655}"/>
   </bookViews>
@@ -1921,7 +1921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="215">
   <si>
     <t>Ability_Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2596,10 +2596,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2656,6 +2652,90 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 공격력 10% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 공격력 15% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛의 공격속도, 이동속도 20% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 적 유닛의 공격속도 15% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 아군 유닛의 공격속도 10%증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 50%미만이 되었을 때, 초당 n1만큼의 도트힐을 n2초동안 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 생산 코스트 20% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 생산 쿨타임 20%감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 생명력 20%증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 이동속도 20%증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛의 공격속도, 이동속도 15% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛에게 n1초 동안 n2만큼의 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성되고 5초간 이동속도가 50%, 공격속도가 30% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 2 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 체력이 1초당 10 감소, 공격속도 30% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 아군 유닛의 이동속도 10% 증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2807,19 +2887,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3139,7 +3219,7 @@
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3154,7 +3234,7 @@
     <col min="9" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="60.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
@@ -3197,6 +3277,9 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3232,6 +3315,9 @@
       <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3267,6 +3353,9 @@
       <c r="K3" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -3290,6 +3379,9 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -3305,13 +3397,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3336,6 +3431,9 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3360,10 +3458,19 @@
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>27</v>
@@ -3409,6 +3516,9 @@
       <c r="K8" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3444,6 +3554,9 @@
       <c r="I9" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>52</v>
       </c>
@@ -3479,6 +3592,9 @@
       <c r="I10" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3517,6 +3633,9 @@
       <c r="I11" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3561,6 +3680,9 @@
       <c r="K12" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>33</v>
       </c>
@@ -3593,6 +3715,9 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3622,6 +3747,9 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>43</v>
       </c>
@@ -3666,6 +3794,9 @@
       <c r="K15" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="L15" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>45</v>
       </c>
@@ -3704,6 +3835,9 @@
       <c r="I16" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="L16" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>47</v>
       </c>
@@ -3740,13 +3874,16 @@
         <v>52</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>177</v>
+        <v>115</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -3786,11 +3923,8 @@
       <c r="I18" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>171</v>
+      <c r="L18" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>54</v>
@@ -3970,7 +4104,7 @@
         <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -4002,7 +4136,7 @@
         <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -4023,7 +4157,7 @@
         <v>101</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>100</v>
@@ -4034,7 +4168,7 @@
         <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -4055,7 +4189,7 @@
         <v>101</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>101</v>
@@ -4095,7 +4229,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>103</v>
@@ -4103,7 +4237,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>107</v>
@@ -4111,7 +4245,7 @@
     </row>
     <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>105</v>
@@ -4119,32 +4253,32 @@
     </row>
     <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P37" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="Q37" s="10" t="s">
+      <c r="Q37" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="P38" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>127</v>
@@ -4152,29 +4286,29 @@
       <c r="P39" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Q40" s="6"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Q41" s="6"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>131</v>
@@ -4182,11 +4316,11 @@
       <c r="P42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="Q42" s="6"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>132</v>
@@ -4198,7 +4332,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>42</v>
@@ -4210,7 +4344,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>133</v>
@@ -4222,7 +4356,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>134</v>

--- a/Assets/Resources/Test/Ability_table.xlsx
+++ b/Assets/Resources/Test/Ability_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\EverMore\Assets\Resources\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C17C3-6558-49DC-A547-AC5E286170AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40086793-7B0C-4D91-8CE4-6B6D425333D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53345D90-7A96-496A-B7FF-D80DB1ADE655}"/>
   </bookViews>
@@ -1921,7 +1921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="226">
   <si>
     <t>Ability_Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2671,10 +2671,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주변 적 유닛의 공격속도 15% 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주변 아군 유닛의 공격속도 10%증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2736,6 +2732,54 @@
   </si>
   <si>
     <t>주변 아군 유닛의 이동속도 10% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 가한 데미지의 8%를 흡혈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 사망할 때 주변 2만큼의 범위에 n1만큼의 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 적 유닛의 공격속도 15% 감소, 상대 유닛을 '빙결' 상태로 만듦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 '빙결'상태일 때, 이동속도 및 공격속도 20% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 상대 유닛을 처치할 시 코스트 n1 만큼 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결 상태인 유닛을 공격할 때 추가 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상 상태인 유닛을 공격할 때 추가 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독 상태인 유닛을 공격할 때 추가 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 유닛과 포탑을 우선 공격, 생성 후 최초 공격 전까지 공격 대상이 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛의 생산 코스트 20% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛의 방어력 50% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 유닛의 방어 관통력 4 증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3219,7 +3263,7 @@
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3234,7 +3278,7 @@
     <col min="9" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="76.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
@@ -3380,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3406,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3432,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3458,19 +3502,19 @@
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>27</v>
@@ -3517,7 +3561,7 @@
         <v>173</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>28</v>
@@ -3555,7 +3599,7 @@
         <v>175</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>52</v>
@@ -3593,7 +3637,7 @@
         <v>175</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>29</v>
@@ -3634,7 +3678,7 @@
         <v>175</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>31</v>
@@ -3716,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>41</v>
@@ -3748,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>43</v>
@@ -3795,7 +3839,7 @@
         <v>174</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>45</v>
@@ -3836,7 +3880,7 @@
         <v>114</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>47</v>
@@ -3874,7 +3918,7 @@
         <v>52</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>103</v>
@@ -3883,7 +3927,7 @@
         <v>115</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -3924,7 +3968,7 @@
         <v>171</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>54</v>
@@ -3961,6 +4005,9 @@
       <c r="I19" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="L19" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3987,6 +4034,9 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
+      <c r="L20" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>110</v>
       </c>
@@ -4013,6 +4063,9 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>119</v>
       </c>
@@ -4045,6 +4098,9 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
+      <c r="L22" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>122</v>
       </c>
@@ -4065,6 +4121,9 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
+      <c r="L23" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -4076,6 +4135,9 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
+      <c r="L24" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4087,6 +4149,9 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -4095,6 +4160,9 @@
       <c r="B26" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="L26" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>98</v>
       </c>
@@ -4125,7 +4193,10 @@
         <v>98</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
@@ -4159,6 +4230,9 @@
       <c r="I28" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="L28" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>100</v>
       </c>
@@ -4190,6 +4264,9 @@
       </c>
       <c r="I29" s="3" t="s">
         <v>193</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>101</v>

--- a/Assets/Resources/Test/Ability_table.xlsx
+++ b/Assets/Resources/Test/Ability_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\EverMore\Assets\Resources\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40086793-7B0C-4D91-8CE4-6B6D425333D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C3D68-15A4-46C9-A973-0BCD097030AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53345D90-7A96-496A-B7FF-D80DB1ADE655}"/>
   </bookViews>
@@ -776,7 +776,139 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F06D65C1-08CC-4E34-859D-820023F63A58}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5F8AB3BC-470A-4557-ADA5-04D043C65C04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verver:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커스텀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">창에서부터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성되고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">나서부터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F06D65C1-08CC-4E34-859D-820023F63A58}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{759605A4-2000-4030-88B2-3945E830E899}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{759605A4-2000-4030-88B2-3945E830E899}">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{117F8D7D-A8E9-42B2-BF2E-EF52D268A9AB}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{117F8D7D-A8E9-42B2-BF2E-EF52D268A9AB}">
       <text>
         <r>
           <rPr>
@@ -1921,7 +2053,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="233">
   <si>
     <t>Ability_Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1939,13 +2071,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ability_increase_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability_increase_2</t>
-  </si>
-  <si>
     <t>Ability_condition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2020,10 +2145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ability_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2320,10 +2441,6 @@
   </si>
   <si>
     <t>Move_Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move_speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2659,127 +2776,166 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유닛의 공격력 10% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛 공격력 15% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격한 유닛의 공격속도, 이동속도 20% 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 아군 유닛의 공격속도 10%증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 50%미만이 되었을 때, 초당 n1만큼의 도트힐을 n2초동안 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유닛의 생산 코스트 20% 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛의 생산 쿨타임 20%감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛의 생명력 20%증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛의 이동속도 20%증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격한 유닛의 공격속도, 이동속도 15% 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격한 유닛에게 n1초 동안 n2만큼의 데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성되고 5초간 이동속도가 50%, 공격속도가 30% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사거리 2 증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유닛의 체력이 1초당 10 감소, 공격속도 30% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주변 아군 유닛의 이동속도 10% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛이 가한 데미지의 8%를 흡혈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛이 사망할 때 주변 2만큼의 범위에 n1만큼의 데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 적 유닛의 공격속도 15% 감소, 상대 유닛을 '빙결' 상태로 만듦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛이 '빙결'상태일 때, 이동속도 및 공격속도 20% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유닛이 상대 유닛을 처치할 시 코스트 n1 만큼 획득</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>빙결 상태인 유닛을 공격할 때 추가 데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화상 상태인 유닛을 공격할 때 추가 데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독 상태인 유닛을 공격할 때 추가 데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>원거리 유닛과 포탑을 우선 공격, 생성 후 최초 공격 전까지 공격 대상이 되지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타격한 유닛의 생산 코스트 20% 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타격한 유닛의 방어력 50% 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 유닛의 방어 관통력 4 증가</t>
+    <t>적용 시점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 공격력 n1 , n2% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 공격력 n1 , n3% 증가</t>
+  </si>
+  <si>
+    <t>타격한 유닛의 공격속도, 이동속도 n1% 감소</t>
+  </si>
+  <si>
+    <t>타격한 유닛의 공격속도, 이동속도 n1% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 적 유닛의 공격속도 n1% 감소, 상대 유닛을 '빙결' 상태로 만듦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 아군 유닛의 공격속도 n1%증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 n1%미만이 되었을 때, 초당 n2만큼의 도트힐을 n3초동안 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 생산 코스트 n1% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 생산 쿨타임 n1%감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 생명력 n1%증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 이동속도 n1%증가</t>
+  </si>
+  <si>
+    <t>유닛이 '빙결'상태일 때, 이동속도 및 공격속도 n1% 증가</t>
+  </si>
+  <si>
+    <t>타격한 유닛의 생산 코스트 n1% 증가</t>
+  </si>
+  <si>
+    <t>생성되고 n1초간 이동속도가 n2%, 공격속도가 n3% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 체력이 1초당 n1 감소, 공격속도 n2% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 아군 유닛의 이동속도 n1% 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 가한 데미지의 n1%를 흡혈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결상태 유무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대 체력 %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결 상태인 유닛을 공격할 때 추가 데미지 n%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상 상태인 유닛을 공격할 때 추가 데미지 n%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독 상태인 유닛을 공격할 때 추가 데미지 n%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛의 방어력 n1% 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 유닛의 방어 관통력 n1 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛에게 n1초 동안 초당 n2만큼의 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격한 유닛에게 n1초 동안 초당 n2만큼의 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 사망할 때 주변 2만큼의 범위에 공격력 n1%만큼의 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3260,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7D95B4-B8C2-4832-B25C-636CBA9CF12A}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3272,27 +3428,26 @@
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="76.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="63" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3301,36 +3456,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -3339,36 +3491,33 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -3377,36 +3526,33 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
+      <c r="H3" s="1">
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -3415,24 +3561,30 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3449,16 +3601,22 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -3467,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3475,16 +3633,22 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -3493,45 +3657,42 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>999</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="1">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>199</v>
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3540,42 +3701,39 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>98</v>
+      <c r="H8" s="1">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -3584,36 +3742,36 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>99</v>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -3622,39 +3780,39 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>100</v>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>205</v>
+        <v>171</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3663,39 +3821,39 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>107</v>
+      <c r="H11" s="1">
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -3704,45 +3862,42 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>107</v>
+      <c r="H12" s="1">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>197</v>
+        <v>169</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -3751,30 +3906,36 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>208</v>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -3783,33 +3944,39 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>208</v>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -3818,45 +3985,42 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>108</v>
+      <c r="G15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -3865,39 +4029,39 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>102</v>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>210</v>
+        <v>110</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3906,45 +4070,42 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>52</v>
+      <c r="H17" s="1">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -3953,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3961,31 +4122,31 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>107</v>
+      <c r="H18" s="1">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>213</v>
+        <v>167</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -3994,94 +4155,121 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>214</v>
+        <v>168</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>215</v>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>217</v>
+      <c r="I21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -4090,89 +4278,160 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>999</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="N22" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -4181,33 +4440,34 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>98</v>
+      <c r="H27" s="1">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -4216,33 +4476,34 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>101</v>
+      <c r="H28" s="1">
+        <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -4251,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -4259,403 +4520,404 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30" s="1" t="s">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="O38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="M39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="O40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="O41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="M42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Q38" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P39" s="5" t="s">
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P53" s="4"/>
+    </row>
+    <row r="54" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P40" s="5" t="s">
+      <c r="P55" s="4"/>
+    </row>
+    <row r="56" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="O58" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P58" s="4"/>
+    </row>
+    <row r="59" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M59" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M60" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M61" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M62" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M63" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M64" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M65" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M66" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P42" s="5" t="s">
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M67" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P43" s="5" t="s">
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M68" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P44" s="5" t="s">
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M69" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M70" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P46" s="5" t="s">
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M71" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P47" s="5" t="s">
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M72" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P49" s="5" t="s">
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M73" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P51" s="5" t="s">
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P52" s="5" t="s">
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M76" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M77" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M78" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P54" s="5" t="s">
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M79" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q56" s="4"/>
-    </row>
-    <row r="57" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="P58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N59" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N60" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N61" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N62" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N63" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N64" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N65" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N66" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N67" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N68" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N69" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N70" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N71" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N72" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N73" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N74" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N75" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N76" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N77" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N78" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N79" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="P38:P42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Test/Ability_table.xlsx
+++ b/Assets/Resources/Test/Ability_table.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\EverMore\Assets\Resources\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkfkr\Documents\GitHub\EverMore\Assets\Resources\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C3D68-15A4-46C9-A973-0BCD097030AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE17AFE-ADD0-4650-8808-1441D38DBB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53345D90-7A96-496A-B7FF-D80DB1ADE655}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{53345D90-7A96-496A-B7FF-D80DB1ADE655}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Chr_spawn">Sheet1!$O$20</definedName>
+    <definedName name="생성시간">Sheet1!$O$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,136 @@
     <author>Verver</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5E373ED4-5C9A-4373-9526-B806FD546955}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F0EA1CB1-2A60-47F4-BF00-7DC48AD3321D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verver:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ability_target</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F06D65C1-08CC-4E34-859D-820023F63A58}">
       <text>
         <r>
           <rPr>
@@ -68,179 +201,45 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>어빌리티의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대상이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>되는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>개체</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>판별</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">:
-1 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>착용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대상</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>어빌리티가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시간
 </t>
         </r>
         <r>
@@ -250,36 +249,226 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">2 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대상
+          <t>Ability_range</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는동안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벗어나면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">해제
 </t>
         </r>
         <r>
@@ -289,237 +478,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">3 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>착용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대상을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중심으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> n</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미터의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아군</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">유닛
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>착용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대상을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중심으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> n</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미터의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적군</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유닛</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1</t>
+          <t>= 2</t>
         </r>
         <r>
           <rPr>
@@ -548,989 +507,126 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스테이터스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>창에서부터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스텟을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>출력</t>
+          <t>경우에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지속시간
+한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때릴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때마다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>갱신됨</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F0EA1CB1-2A60-47F4-BF00-7DC48AD3321D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verver:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Ability_target</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>혹은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> n</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>값</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5F8AB3BC-470A-4557-ADA5-04D043C65C04}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verver:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>커스텀</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">창에서부터
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>생성되고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">나서부터
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타격</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F06D65C1-08CC-4E34-859D-820023F63A58}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verver:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>어빌리티가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용되는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시간
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ability_range</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>혹은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>범위</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>내에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있는동안</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>범위를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>벗어나면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>즉시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">해제
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>= 2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지속시간
-한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>때릴</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>때마다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>갱신됨</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{759605A4-2000-4030-88B2-3945E830E899}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verver:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>어빌리티의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발동에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>특별한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조건이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조건의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>변수명</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{117F8D7D-A8E9-42B2-BF2E-EF52D268A9AB}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{117F8D7D-A8E9-42B2-BF2E-EF52D268A9AB}">
       <text>
         <r>
           <rPr>
@@ -2005,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{960EEB8A-A464-419C-B52A-8DCE31699A90}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{960EEB8A-A464-419C-B52A-8DCE31699A90}">
       <text>
         <r>
           <rPr>
@@ -2045,6 +1141,914 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> : %</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{759605A4-2000-4030-88B2-3945E830E899}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verver:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어빌리티의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특별한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변수명</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5E373ED4-5C9A-4373-9526-B806FD546955}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verver:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어빌리티의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개체</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>판별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>착용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>착용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중심으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미터의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아군</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">유닛
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>착용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중심으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미터의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적군</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유닛</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이터스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>창에서부터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스텟을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{5F8AB3BC-470A-4557-ADA5-04D043C65C04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verver:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커스텀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">창에서부터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성되고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">나서부터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시
+</t>
         </r>
       </text>
     </comment>
@@ -3419,7 +3423,7 @@
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3450,28 +3454,28 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>190</v>
@@ -3485,28 +3489,28 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="J2" s="1">
         <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>197</v>
@@ -3520,28 +3524,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="J3" s="1">
         <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>198</v>
@@ -3555,25 +3559,26 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="J4" s="1">
         <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>200</v>
@@ -3587,25 +3592,26 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="J5" s="1">
         <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>202</v>
@@ -3622,22 +3628,23 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="J6" s="1">
         <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>203</v>
@@ -3651,28 +3658,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="J7" s="1">
         <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>205</v>
@@ -3695,28 +3702,28 @@
         <v>67</v>
       </c>
       <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="J8" s="1">
         <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>207</v>
@@ -3736,25 +3743,26 @@
         <v>68</v>
       </c>
       <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="J9" s="1">
         <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>208</v>
@@ -3774,25 +3782,26 @@
         <v>69</v>
       </c>
       <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="J10" s="1">
         <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>209</v>
@@ -3815,25 +3824,26 @@
         <v>70</v>
       </c>
       <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="J11" s="1">
         <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>210</v>
@@ -3856,28 +3866,28 @@
         <v>71</v>
       </c>
       <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
       <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
         <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>199</v>
@@ -3900,25 +3910,26 @@
         <v>72</v>
       </c>
       <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="J13" s="1">
         <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>225</v>
@@ -3938,25 +3949,26 @@
         <v>93</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="J14" s="1">
         <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>226</v>
@@ -3979,28 +3991,28 @@
         <v>94</v>
       </c>
       <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="J15" s="1">
         <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>213</v>
@@ -4023,25 +4035,26 @@
         <v>109</v>
       </c>
       <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="J16" s="1">
         <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>192</v>
@@ -4064,28 +4077,28 @@
         <v>112</v>
       </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="J17" s="1">
         <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>214</v>
@@ -4111,22 +4124,23 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="J18" s="1">
         <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>215</v>
@@ -4149,25 +4163,26 @@
         <v>114</v>
       </c>
       <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="J19" s="1">
         <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>216</v>
@@ -4190,25 +4205,26 @@
         <v>117</v>
       </c>
       <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="J20" s="1">
         <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>230</v>
@@ -4231,25 +4247,26 @@
         <v>121</v>
       </c>
       <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="F21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>211</v>
@@ -4272,25 +4289,26 @@
         <v>122</v>
       </c>
       <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="J22" s="1">
         <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>194</v>
@@ -4313,24 +4331,23 @@
         <v>124</v>
       </c>
       <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="J23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
         <v>219</v>
       </c>
@@ -4343,24 +4360,23 @@
         <v>125</v>
       </c>
       <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="J24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
         <v>220</v>
       </c>
@@ -4373,24 +4389,23 @@
         <v>126</v>
       </c>
       <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
         <v>221</v>
       </c>
@@ -4403,22 +4418,21 @@
         <v>159</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
         <v>195</v>
       </c>
@@ -4434,27 +4448,26 @@
         <v>186</v>
       </c>
       <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
       <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
         <v>212</v>
       </c>
@@ -4470,27 +4483,26 @@
         <v>187</v>
       </c>
       <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="J28" s="1">
         <v>3</v>
       </c>
-      <c r="F28" s="1">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4506,27 +4518,26 @@
         <v>188</v>
       </c>
       <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
         <v>223</v>
       </c>
